--- a/data/Coregonine-Temperature-Experiment-EmbryoMeasurements.xlsx
+++ b/data/Coregonine-Temperature-Experiment-EmbryoMeasurements.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Taylor/CloudStation/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0FB190-53E8-2440-AB3E-379A603E0BA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C595F5-DFEA-7A44-B896-C449F5FD553B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10180" yWindow="460" windowWidth="18620" windowHeight="16580" xr2:uid="{CBE3460D-82C6-0746-8A17-5A7414D36BC9}"/>
+    <workbookView xWindow="-36700" yWindow="4480" windowWidth="36300" windowHeight="20160" xr2:uid="{CBE3460D-82C6-0746-8A17-5A7414D36BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="2020Parentage" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$421</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$694</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="78">
   <si>
     <t>population</t>
   </si>
@@ -269,13 +269,17 @@
   <si>
     <t>n</t>
   </si>
+  <si>
+    <t>konnevesi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -312,11 +316,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +637,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8460A-7D7B-F04F-B758-EA68E31C4B0C}">
-  <dimension ref="A1:K421"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="J178" sqref="J178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K120" sqref="K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +694,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44174</v>
       </c>
@@ -722,7 +730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44174</v>
       </c>
@@ -758,7 +766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44174</v>
       </c>
@@ -794,7 +802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44174</v>
       </c>
@@ -830,7 +838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44174</v>
       </c>
@@ -866,7 +874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44174</v>
       </c>
@@ -902,7 +910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44174</v>
       </c>
@@ -938,7 +946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44174</v>
       </c>
@@ -974,7 +982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44174</v>
       </c>
@@ -1010,7 +1018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44174</v>
       </c>
@@ -1046,7 +1054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44174</v>
       </c>
@@ -1082,7 +1090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44174</v>
       </c>
@@ -1118,7 +1126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44174</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44174</v>
       </c>
@@ -1190,7 +1198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44174</v>
       </c>
@@ -1226,7 +1234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44174</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44174</v>
       </c>
@@ -1298,7 +1306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44174</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44174</v>
       </c>
@@ -1370,7 +1378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44174</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44174</v>
       </c>
@@ -1442,7 +1450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44174</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44174</v>
       </c>
@@ -1514,7 +1522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44174</v>
       </c>
@@ -1550,7 +1558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44174</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44174</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44174</v>
       </c>
@@ -1658,7 +1666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44174</v>
       </c>
@@ -1694,7 +1702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44174</v>
       </c>
@@ -1730,7 +1738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44174</v>
       </c>
@@ -1766,7 +1774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44174</v>
       </c>
@@ -1802,7 +1810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44174</v>
       </c>
@@ -1838,7 +1846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44174</v>
       </c>
@@ -1874,7 +1882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44174</v>
       </c>
@@ -1910,7 +1918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44174</v>
       </c>
@@ -1946,7 +1954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44174</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44174</v>
       </c>
@@ -2054,7 +2062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44174</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44174</v>
       </c>
@@ -2126,7 +2134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44174</v>
       </c>
@@ -2162,7 +2170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44174</v>
       </c>
@@ -2198,7 +2206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44174</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44174</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44174</v>
       </c>
@@ -2306,7 +2314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44174</v>
       </c>
@@ -2342,7 +2350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44174</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44174</v>
       </c>
@@ -2414,7 +2422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44174</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44174</v>
       </c>
@@ -2486,7 +2494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44174</v>
       </c>
@@ -2522,7 +2530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44174</v>
       </c>
@@ -2558,7 +2566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44174</v>
       </c>
@@ -2594,7 +2602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44174</v>
       </c>
@@ -2630,7 +2638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44174</v>
       </c>
@@ -2666,7 +2674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44174</v>
       </c>
@@ -2702,7 +2710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -2738,7 +2746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44174</v>
       </c>
@@ -2774,7 +2782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44174</v>
       </c>
@@ -2810,7 +2818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44174</v>
       </c>
@@ -2846,7 +2854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44174</v>
       </c>
@@ -2882,7 +2890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44174</v>
       </c>
@@ -2918,7 +2926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44174</v>
       </c>
@@ -2954,7 +2962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44174</v>
       </c>
@@ -2990,7 +2998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44174</v>
       </c>
@@ -3026,7 +3034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44174</v>
       </c>
@@ -3062,7 +3070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44174</v>
       </c>
@@ -3098,7 +3106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44174</v>
       </c>
@@ -3134,7 +3142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44174</v>
       </c>
@@ -3170,7 +3178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44174</v>
       </c>
@@ -3206,7 +3214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44174</v>
       </c>
@@ -3242,7 +3250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44174</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44174</v>
       </c>
@@ -3314,7 +3322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44174</v>
       </c>
@@ -3350,7 +3358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44174</v>
       </c>
@@ -3386,7 +3394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44174</v>
       </c>
@@ -3422,7 +3430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44174</v>
       </c>
@@ -3458,7 +3466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44174</v>
       </c>
@@ -3494,7 +3502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44174</v>
       </c>
@@ -3530,7 +3538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44174</v>
       </c>
@@ -3566,7 +3574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44174</v>
       </c>
@@ -3602,7 +3610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44174</v>
       </c>
@@ -3638,7 +3646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44174</v>
       </c>
@@ -3674,7 +3682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44174</v>
       </c>
@@ -3710,7 +3718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44174</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44174</v>
       </c>
@@ -3782,7 +3790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44174</v>
       </c>
@@ -3818,7 +3826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44174</v>
       </c>
@@ -3854,7 +3862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44174</v>
       </c>
@@ -3890,7 +3898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44174</v>
       </c>
@@ -3926,7 +3934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44174</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44174</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44174</v>
       </c>
@@ -4034,7 +4042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44174</v>
       </c>
@@ -4070,7 +4078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44174</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44174</v>
       </c>
@@ -4142,7 +4150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44174</v>
       </c>
@@ -4178,7 +4186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44174</v>
       </c>
@@ -4214,7 +4222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44174</v>
       </c>
@@ -4250,7 +4258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44174</v>
       </c>
@@ -4322,7 +4330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44174</v>
       </c>
@@ -4358,7 +4366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44174</v>
       </c>
@@ -4394,7 +4402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44174</v>
       </c>
@@ -4430,7 +4438,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44174</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44174</v>
       </c>
@@ -4502,7 +4510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44174</v>
       </c>
@@ -4538,7 +4546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44174</v>
       </c>
@@ -4574,7 +4582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44174</v>
       </c>
@@ -4610,7 +4618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44174</v>
       </c>
@@ -4646,7 +4654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44174</v>
       </c>
@@ -4682,7 +4690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44174</v>
       </c>
@@ -4718,7 +4726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44174</v>
       </c>
@@ -4754,7 +4762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44174</v>
       </c>
@@ -4790,7 +4798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44174</v>
       </c>
@@ -4862,7 +4870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44174</v>
       </c>
@@ -4898,7 +4906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44174</v>
       </c>
@@ -4970,7 +4978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44174</v>
       </c>
@@ -5006,7 +5014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44174</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -5078,7 +5086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44174</v>
       </c>
@@ -5114,7 +5122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44174</v>
       </c>
@@ -5150,7 +5158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44174</v>
       </c>
@@ -5186,7 +5194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44174</v>
       </c>
@@ -5222,7 +5230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44174</v>
       </c>
@@ -5258,7 +5266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44174</v>
       </c>
@@ -5294,7 +5302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44174</v>
       </c>
@@ -5330,7 +5338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44174</v>
       </c>
@@ -5366,7 +5374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44174</v>
       </c>
@@ -5402,7 +5410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44174</v>
       </c>
@@ -5438,7 +5446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44174</v>
       </c>
@@ -5474,7 +5482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44174</v>
       </c>
@@ -5510,7 +5518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44174</v>
       </c>
@@ -5546,7 +5554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44174</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44174</v>
       </c>
@@ -5618,7 +5626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44174</v>
       </c>
@@ -5654,7 +5662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44174</v>
       </c>
@@ -5690,7 +5698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44174</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44174</v>
       </c>
@@ -5762,7 +5770,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44174</v>
       </c>
@@ -5798,7 +5806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44174</v>
       </c>
@@ -5834,7 +5842,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44174</v>
       </c>
@@ -5870,7 +5878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44174</v>
       </c>
@@ -5906,7 +5914,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44174</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44174</v>
       </c>
@@ -5978,7 +5986,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44174</v>
       </c>
@@ -6014,7 +6022,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44174</v>
       </c>
@@ -6050,7 +6058,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44174</v>
       </c>
@@ -6086,7 +6094,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44174</v>
       </c>
@@ -6122,7 +6130,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44174</v>
       </c>
@@ -6158,7 +6166,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44174</v>
       </c>
@@ -6194,7 +6202,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44174</v>
       </c>
@@ -6230,7 +6238,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44174</v>
       </c>
@@ -6266,7 +6274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44174</v>
       </c>
@@ -6302,7 +6310,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44174</v>
       </c>
@@ -6338,7 +6346,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44174</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44174</v>
       </c>
@@ -6410,7 +6418,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44174</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44174</v>
       </c>
@@ -6482,7 +6490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -6518,7 +6526,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44174</v>
       </c>
@@ -6554,7 +6562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44174</v>
       </c>
@@ -6590,7 +6598,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44174</v>
       </c>
@@ -6626,7 +6634,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44174</v>
       </c>
@@ -6662,7 +6670,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44174</v>
       </c>
@@ -6698,7 +6706,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44174</v>
       </c>
@@ -6734,7 +6742,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44174</v>
       </c>
@@ -6770,7 +6778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44174</v>
       </c>
@@ -6806,7 +6814,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44174</v>
       </c>
@@ -6842,7 +6850,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44174</v>
       </c>
@@ -6878,7 +6886,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44174</v>
       </c>
@@ -6914,7 +6922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44174</v>
       </c>
@@ -6950,7 +6958,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44174</v>
       </c>
@@ -6986,7 +6994,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44174</v>
       </c>
@@ -7022,7 +7030,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44174</v>
       </c>
@@ -7058,7 +7066,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44174</v>
       </c>
@@ -7094,7 +7102,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44174</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44174</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44163</v>
       </c>
@@ -7202,7 +7210,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44163</v>
       </c>
@@ -7238,7 +7246,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44163</v>
       </c>
@@ -7274,7 +7282,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44163</v>
       </c>
@@ -7310,7 +7318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44163</v>
       </c>
@@ -7346,7 +7354,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44163</v>
       </c>
@@ -7382,7 +7390,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44163</v>
       </c>
@@ -7418,7 +7426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44163</v>
       </c>
@@ -7454,7 +7462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44163</v>
       </c>
@@ -7490,7 +7498,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44163</v>
       </c>
@@ -7526,7 +7534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44163</v>
       </c>
@@ -7562,7 +7570,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44163</v>
       </c>
@@ -7598,7 +7606,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44163</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44163</v>
       </c>
@@ -7670,7 +7678,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44163</v>
       </c>
@@ -7706,7 +7714,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44163</v>
       </c>
@@ -7742,7 +7750,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44163</v>
       </c>
@@ -7778,7 +7786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44163</v>
       </c>
@@ -7814,7 +7822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44163</v>
       </c>
@@ -7850,7 +7858,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44163</v>
       </c>
@@ -7886,7 +7894,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44163</v>
       </c>
@@ -7922,7 +7930,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44163</v>
       </c>
@@ -7958,7 +7966,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44163</v>
       </c>
@@ -7994,7 +8002,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44163</v>
       </c>
@@ -8030,7 +8038,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44163</v>
       </c>
@@ -8066,7 +8074,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44163</v>
       </c>
@@ -8102,7 +8110,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44163</v>
       </c>
@@ -8138,7 +8146,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44163</v>
       </c>
@@ -8174,7 +8182,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44163</v>
       </c>
@@ -8210,7 +8218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44163</v>
       </c>
@@ -8246,7 +8254,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44163</v>
       </c>
@@ -8282,7 +8290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44163</v>
       </c>
@@ -8318,7 +8326,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44163</v>
       </c>
@@ -8354,7 +8362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44163</v>
       </c>
@@ -8390,7 +8398,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44163</v>
       </c>
@@ -8426,7 +8434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44163</v>
       </c>
@@ -8462,7 +8470,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44163</v>
       </c>
@@ -8498,7 +8506,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44163</v>
       </c>
@@ -8534,7 +8542,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44163</v>
       </c>
@@ -8570,7 +8578,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44163</v>
       </c>
@@ -8606,7 +8614,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44163</v>
       </c>
@@ -8642,7 +8650,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44163</v>
       </c>
@@ -8678,7 +8686,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44163</v>
       </c>
@@ -8714,7 +8722,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44163</v>
       </c>
@@ -8750,7 +8758,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44163</v>
       </c>
@@ -8786,7 +8794,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44163</v>
       </c>
@@ -8822,7 +8830,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44163</v>
       </c>
@@ -8858,7 +8866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44163</v>
       </c>
@@ -8894,7 +8902,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44163</v>
       </c>
@@ -8930,7 +8938,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44163</v>
       </c>
@@ -8966,7 +8974,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44163</v>
       </c>
@@ -9002,7 +9010,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44163</v>
       </c>
@@ -9038,7 +9046,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44163</v>
       </c>
@@ -9074,7 +9082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44163</v>
       </c>
@@ -9110,7 +9118,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44163</v>
       </c>
@@ -9146,7 +9154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44163</v>
       </c>
@@ -9182,7 +9190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44163</v>
       </c>
@@ -9218,7 +9226,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44163</v>
       </c>
@@ -9254,7 +9262,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -9290,7 +9298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44163</v>
       </c>
@@ -9326,7 +9334,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44163</v>
       </c>
@@ -9362,7 +9370,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44163</v>
       </c>
@@ -9398,7 +9406,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44163</v>
       </c>
@@ -9434,7 +9442,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44163</v>
       </c>
@@ -9470,7 +9478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44163</v>
       </c>
@@ -9506,7 +9514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44163</v>
       </c>
@@ -9542,7 +9550,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44163</v>
       </c>
@@ -9578,7 +9586,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44163</v>
       </c>
@@ -9614,7 +9622,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44163</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44163</v>
       </c>
@@ -9686,7 +9694,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44163</v>
       </c>
@@ -9722,7 +9730,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44163</v>
       </c>
@@ -9758,7 +9766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44163</v>
       </c>
@@ -9794,7 +9802,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44163</v>
       </c>
@@ -9830,7 +9838,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44163</v>
       </c>
@@ -9866,7 +9874,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44163</v>
       </c>
@@ -9902,7 +9910,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44163</v>
       </c>
@@ -9938,7 +9946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44163</v>
       </c>
@@ -9974,7 +9982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44163</v>
       </c>
@@ -10010,7 +10018,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44163</v>
       </c>
@@ -10046,7 +10054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44163</v>
       </c>
@@ -10082,7 +10090,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44163</v>
       </c>
@@ -10118,7 +10126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44163</v>
       </c>
@@ -10154,7 +10162,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
@@ -10190,7 +10198,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44163</v>
       </c>
@@ -10226,7 +10234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44163</v>
       </c>
@@ -10262,7 +10270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44163</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44163</v>
       </c>
@@ -10334,7 +10342,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44163</v>
       </c>
@@ -10370,7 +10378,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44163</v>
       </c>
@@ -10406,7 +10414,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44163</v>
       </c>
@@ -10442,7 +10450,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44163</v>
       </c>
@@ -10478,7 +10486,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44163</v>
       </c>
@@ -10514,7 +10522,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44163</v>
       </c>
@@ -10550,7 +10558,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44163</v>
       </c>
@@ -10586,7 +10594,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44163</v>
       </c>
@@ -10622,7 +10630,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44163</v>
       </c>
@@ -10658,7 +10666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44163</v>
       </c>
@@ -10694,7 +10702,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44163</v>
       </c>
@@ -10730,7 +10738,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44163</v>
       </c>
@@ -10766,7 +10774,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44163</v>
       </c>
@@ -10802,7 +10810,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44163</v>
       </c>
@@ -10838,7 +10846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44163</v>
       </c>
@@ -10874,7 +10882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44163</v>
       </c>
@@ -10910,7 +10918,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44163</v>
       </c>
@@ -10946,7 +10954,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44163</v>
       </c>
@@ -10982,7 +10990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44163</v>
       </c>
@@ -11018,7 +11026,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44163</v>
       </c>
@@ -11054,7 +11062,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44163</v>
       </c>
@@ -11090,7 +11098,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44163</v>
       </c>
@@ -11126,7 +11134,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44163</v>
       </c>
@@ -11162,7 +11170,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44163</v>
       </c>
@@ -11198,7 +11206,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44163</v>
       </c>
@@ -11234,7 +11242,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44163</v>
       </c>
@@ -11270,7 +11278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44163</v>
       </c>
@@ -11306,7 +11314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44163</v>
       </c>
@@ -11342,7 +11350,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44163</v>
       </c>
@@ -11378,7 +11386,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44163</v>
       </c>
@@ -11414,7 +11422,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44163</v>
       </c>
@@ -11450,7 +11458,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44163</v>
       </c>
@@ -11486,7 +11494,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44163</v>
       </c>
@@ -11522,7 +11530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44163</v>
       </c>
@@ -11558,7 +11566,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44163</v>
       </c>
@@ -11594,7 +11602,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44163</v>
       </c>
@@ -11630,7 +11638,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
@@ -11666,7 +11674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44163</v>
       </c>
@@ -11702,7 +11710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44163</v>
       </c>
@@ -11738,7 +11746,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44163</v>
       </c>
@@ -11774,7 +11782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44163</v>
       </c>
@@ -11810,7 +11818,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44163</v>
       </c>
@@ -11846,7 +11854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44163</v>
       </c>
@@ -11882,7 +11890,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44163</v>
       </c>
@@ -11918,7 +11926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44163</v>
       </c>
@@ -11954,7 +11962,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44163</v>
       </c>
@@ -11990,7 +11998,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44163</v>
       </c>
@@ -12026,7 +12034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44163</v>
       </c>
@@ -12062,7 +12070,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44163</v>
       </c>
@@ -12098,7 +12106,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44163</v>
       </c>
@@ -12134,7 +12142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44163</v>
       </c>
@@ -12170,7 +12178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44163</v>
       </c>
@@ -12206,7 +12214,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44163</v>
       </c>
@@ -12242,7 +12250,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44163</v>
       </c>
@@ -12278,7 +12286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44163</v>
       </c>
@@ -12314,7 +12322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44163</v>
       </c>
@@ -12350,7 +12358,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44163</v>
       </c>
@@ -12386,7 +12394,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44163</v>
       </c>
@@ -12422,7 +12430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44163</v>
       </c>
@@ -12458,7 +12466,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44163</v>
       </c>
@@ -12494,7 +12502,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44163</v>
       </c>
@@ -12530,7 +12538,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44163</v>
       </c>
@@ -12566,7 +12574,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44163</v>
       </c>
@@ -12602,7 +12610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44163</v>
       </c>
@@ -12638,7 +12646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44163</v>
       </c>
@@ -12674,7 +12682,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44163</v>
       </c>
@@ -12710,7 +12718,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44163</v>
       </c>
@@ -12746,7 +12754,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44163</v>
       </c>
@@ -12782,7 +12790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44163</v>
       </c>
@@ -12818,7 +12826,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44163</v>
       </c>
@@ -12854,7 +12862,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44163</v>
       </c>
@@ -12890,7 +12898,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44163</v>
       </c>
@@ -12926,7 +12934,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44163</v>
       </c>
@@ -12962,7 +12970,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44163</v>
       </c>
@@ -12998,7 +13006,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44163</v>
       </c>
@@ -13034,7 +13042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44163</v>
       </c>
@@ -13070,7 +13078,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44163</v>
       </c>
@@ -13106,7 +13114,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44163</v>
       </c>
@@ -13142,7 +13150,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44163</v>
       </c>
@@ -13178,7 +13186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44163</v>
       </c>
@@ -13214,7 +13222,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44163</v>
       </c>
@@ -13250,7 +13258,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44163</v>
       </c>
@@ -13286,7 +13294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44163</v>
       </c>
@@ -13322,7 +13330,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44163</v>
       </c>
@@ -13358,7 +13366,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44163</v>
       </c>
@@ -13394,7 +13402,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44163</v>
       </c>
@@ -13430,7 +13438,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44163</v>
       </c>
@@ -13466,7 +13474,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44163</v>
       </c>
@@ -13502,7 +13510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44163</v>
       </c>
@@ -13538,7 +13546,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44163</v>
       </c>
@@ -13574,7 +13582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44163</v>
       </c>
@@ -13610,7 +13618,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44163</v>
       </c>
@@ -13646,7 +13654,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44163</v>
       </c>
@@ -13682,7 +13690,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44163</v>
       </c>
@@ -13718,7 +13726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44163</v>
       </c>
@@ -13754,7 +13762,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44163</v>
       </c>
@@ -13790,7 +13798,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44163</v>
       </c>
@@ -13826,7 +13834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44163</v>
       </c>
@@ -13862,7 +13870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44163</v>
       </c>
@@ -13898,7 +13906,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44163</v>
       </c>
@@ -13934,7 +13942,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44163</v>
       </c>
@@ -13970,7 +13978,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44163</v>
       </c>
@@ -14006,7 +14014,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44163</v>
       </c>
@@ -14042,7 +14050,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44163</v>
       </c>
@@ -14078,7 +14086,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44163</v>
       </c>
@@ -14114,7 +14122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44163</v>
       </c>
@@ -14150,7 +14158,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44163</v>
       </c>
@@ -14186,7 +14194,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44163</v>
       </c>
@@ -14222,7 +14230,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44163</v>
       </c>
@@ -14258,7 +14266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44163</v>
       </c>
@@ -14294,7 +14302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44163</v>
       </c>
@@ -14330,7 +14338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44163</v>
       </c>
@@ -14366,7 +14374,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44163</v>
       </c>
@@ -14402,7 +14410,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44163</v>
       </c>
@@ -14438,7 +14446,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44163</v>
       </c>
@@ -14474,7 +14482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44163</v>
       </c>
@@ -14510,7 +14518,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44163</v>
       </c>
@@ -14546,7 +14554,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44163</v>
       </c>
@@ -14582,7 +14590,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44163</v>
       </c>
@@ -14618,7 +14626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44163</v>
       </c>
@@ -14654,7 +14662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44163</v>
       </c>
@@ -14690,7 +14698,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44163</v>
       </c>
@@ -14726,7 +14734,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44163</v>
       </c>
@@ -14762,7 +14770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44163</v>
       </c>
@@ -14798,7 +14806,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44163</v>
       </c>
@@ -14834,7 +14842,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44163</v>
       </c>
@@ -14870,7 +14878,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44163</v>
       </c>
@@ -14906,7 +14914,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44163</v>
       </c>
@@ -14942,7 +14950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44163</v>
       </c>
@@ -14978,7 +14986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44163</v>
       </c>
@@ -15014,7 +15022,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44163</v>
       </c>
@@ -15050,7 +15058,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44163</v>
       </c>
@@ -15086,7 +15094,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44163</v>
       </c>
@@ -15122,7 +15130,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44163</v>
       </c>
@@ -15158,7 +15166,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44163</v>
       </c>
@@ -15194,7 +15202,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44163</v>
       </c>
@@ -15230,7 +15238,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44163</v>
       </c>
@@ -15266,7 +15274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44163</v>
       </c>
@@ -15302,7 +15310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44163</v>
       </c>
@@ -15338,7 +15346,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44163</v>
       </c>
@@ -15374,7 +15382,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44163</v>
       </c>
@@ -15410,7 +15418,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44163</v>
       </c>
@@ -15446,7 +15454,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44163</v>
       </c>
@@ -15482,7 +15490,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44163</v>
       </c>
@@ -15518,7 +15526,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44163</v>
       </c>
@@ -15554,7 +15562,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44163</v>
       </c>
@@ -15590,7 +15598,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44163</v>
       </c>
@@ -15626,7 +15634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44163</v>
       </c>
@@ -15662,7 +15670,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44163</v>
       </c>
@@ -15698,7 +15706,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44163</v>
       </c>
@@ -15734,7 +15742,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44163</v>
       </c>
@@ -15770,7 +15778,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44163</v>
       </c>
@@ -15806,8 +15814,3842 @@
         <v>75</v>
       </c>
     </row>
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B422" t="s">
+        <v>77</v>
+      </c>
+      <c r="J422" s="2">
+        <v>1.5877934272300471</v>
+      </c>
+      <c r="K422" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B423" t="s">
+        <v>77</v>
+      </c>
+      <c r="J423" s="2">
+        <v>1.6922535211267609</v>
+      </c>
+      <c r="K423" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B424" t="s">
+        <v>77</v>
+      </c>
+      <c r="J424" s="2">
+        <v>1.671361502347418</v>
+      </c>
+      <c r="K424" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B425" t="s">
+        <v>77</v>
+      </c>
+      <c r="J425" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K425" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B426" t="s">
+        <v>77</v>
+      </c>
+      <c r="J426" s="2">
+        <v>1.6156494522691707</v>
+      </c>
+      <c r="K426" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B427" t="s">
+        <v>77</v>
+      </c>
+      <c r="J427" s="2">
+        <v>1.6295774647887324</v>
+      </c>
+      <c r="K427" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B428" t="s">
+        <v>77</v>
+      </c>
+      <c r="J428" s="2">
+        <v>1.4763693270735525</v>
+      </c>
+      <c r="K428" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B429" t="s">
+        <v>77</v>
+      </c>
+      <c r="J429" s="2">
+        <v>1.4763693270735525</v>
+      </c>
+      <c r="K429" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B430" t="s">
+        <v>77</v>
+      </c>
+      <c r="J430" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K430" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B431" t="s">
+        <v>77</v>
+      </c>
+      <c r="J431" s="2">
+        <v>1.5460093896713616</v>
+      </c>
+      <c r="K431" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B432" t="s">
+        <v>77</v>
+      </c>
+      <c r="J432" s="2">
+        <v>1.4763693270735525</v>
+      </c>
+      <c r="K432" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B433" t="s">
+        <v>77</v>
+      </c>
+      <c r="J433" s="2">
+        <v>1.7270735524256653</v>
+      </c>
+      <c r="K433" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B434" t="s">
+        <v>77</v>
+      </c>
+      <c r="J434" s="2">
+        <v>1.4763693270735525</v>
+      </c>
+      <c r="K434" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B435" t="s">
+        <v>77</v>
+      </c>
+      <c r="J435" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K435" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B436" t="s">
+        <v>77</v>
+      </c>
+      <c r="J436" s="2">
+        <v>1.7270735524256653</v>
+      </c>
+      <c r="K436" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B437" t="s">
+        <v>77</v>
+      </c>
+      <c r="J437" s="2">
+        <v>1.518153364632238</v>
+      </c>
+      <c r="K437" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B438" t="s">
+        <v>77</v>
+      </c>
+      <c r="J438" s="2">
+        <v>1.4763693270735525</v>
+      </c>
+      <c r="K438" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B439" t="s">
+        <v>77</v>
+      </c>
+      <c r="J439" s="2">
+        <v>1.7270735524256653</v>
+      </c>
+      <c r="K439" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B440" t="s">
+        <v>77</v>
+      </c>
+      <c r="J440" s="2">
+        <v>1.3788732394366199</v>
+      </c>
+      <c r="K440" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B441" t="s">
+        <v>77</v>
+      </c>
+      <c r="J441" s="2">
+        <v>1.4763693270735525</v>
+      </c>
+      <c r="K441" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B442" t="s">
+        <v>77</v>
+      </c>
+      <c r="J442" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K442" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B443" t="s">
+        <v>77</v>
+      </c>
+      <c r="J443" s="2">
+        <v>1.3788732394366199</v>
+      </c>
+      <c r="K443" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B444" t="s">
+        <v>77</v>
+      </c>
+      <c r="J444" s="2">
+        <v>1.7688575899843506</v>
+      </c>
+      <c r="K444" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B445" t="s">
+        <v>77</v>
+      </c>
+      <c r="J445" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K445" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B446" t="s">
+        <v>77</v>
+      </c>
+      <c r="J446" s="2">
+        <v>1.7131455399061035</v>
+      </c>
+      <c r="K446" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B447" t="s">
+        <v>77</v>
+      </c>
+      <c r="J447" s="2">
+        <v>1.8245696400625979</v>
+      </c>
+      <c r="K447" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B448" t="s">
+        <v>77</v>
+      </c>
+      <c r="J448" s="2">
+        <v>1.4345852895148672</v>
+      </c>
+      <c r="K448" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B449" t="s">
+        <v>77</v>
+      </c>
+      <c r="J449" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K449" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B450" t="s">
+        <v>77</v>
+      </c>
+      <c r="J450" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K450" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B451" t="s">
+        <v>77</v>
+      </c>
+      <c r="J451" s="2">
+        <v>1.5738654147104854</v>
+      </c>
+      <c r="K451" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B452" t="s">
+        <v>77</v>
+      </c>
+      <c r="J452" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K452" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B453" t="s">
+        <v>77</v>
+      </c>
+      <c r="J453" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K453" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B454" t="s">
+        <v>77</v>
+      </c>
+      <c r="J454" s="2">
+        <v>1.3453488372093023</v>
+      </c>
+      <c r="K454" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B455" t="s">
+        <v>77</v>
+      </c>
+      <c r="J455" s="2">
+        <v>1.5178294573643412</v>
+      </c>
+      <c r="K455" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B456" t="s">
+        <v>77</v>
+      </c>
+      <c r="J456" s="2">
+        <v>1.6385658914728682</v>
+      </c>
+      <c r="K456" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B457" t="s">
+        <v>77</v>
+      </c>
+      <c r="J457" s="2">
+        <v>1.3453488372093023</v>
+      </c>
+      <c r="K457" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B458" t="s">
+        <v>77</v>
+      </c>
+      <c r="J458" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K458" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B459" t="s">
+        <v>77</v>
+      </c>
+      <c r="J459" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K459" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B460" t="s">
+        <v>77</v>
+      </c>
+      <c r="J460" s="2">
+        <v>1.5178294573643412</v>
+      </c>
+      <c r="K460" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B461" t="s">
+        <v>77</v>
+      </c>
+      <c r="J461" s="2">
+        <v>1.5178294573643412</v>
+      </c>
+      <c r="K461" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B462" t="s">
+        <v>77</v>
+      </c>
+      <c r="J462" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K462" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B463" t="s">
+        <v>77</v>
+      </c>
+      <c r="J463" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K463" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B464" t="s">
+        <v>77</v>
+      </c>
+      <c r="J464" s="2">
+        <v>1.5178294573643412</v>
+      </c>
+      <c r="K464" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B465" t="s">
+        <v>77</v>
+      </c>
+      <c r="J465" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K465" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B466" t="s">
+        <v>77</v>
+      </c>
+      <c r="J466" s="2">
+        <v>1.5178294573643412</v>
+      </c>
+      <c r="K466" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B467" t="s">
+        <v>77</v>
+      </c>
+      <c r="J467" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K467" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B468" t="s">
+        <v>77</v>
+      </c>
+      <c r="J468" s="2">
+        <v>1.5868217054263565</v>
+      </c>
+      <c r="K468" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B469" t="s">
+        <v>77</v>
+      </c>
+      <c r="J469" s="2">
+        <v>1.5868217054263565</v>
+      </c>
+      <c r="K469" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B470" t="s">
+        <v>77</v>
+      </c>
+      <c r="J470" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K470" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B471" t="s">
+        <v>77</v>
+      </c>
+      <c r="J471" s="2">
+        <v>1.5868217054263565</v>
+      </c>
+      <c r="K471" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B472" t="s">
+        <v>77</v>
+      </c>
+      <c r="J472" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K472" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B473" t="s">
+        <v>77</v>
+      </c>
+      <c r="J473" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K473" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B474" t="s">
+        <v>77</v>
+      </c>
+      <c r="J474" s="2">
+        <v>1.5178294573643412</v>
+      </c>
+      <c r="K474" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B475" t="s">
+        <v>77</v>
+      </c>
+      <c r="J475" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K475" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B476" t="s">
+        <v>77</v>
+      </c>
+      <c r="J476" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K476" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B477" t="s">
+        <v>77</v>
+      </c>
+      <c r="J477" s="2">
+        <v>1.4660852713178294</v>
+      </c>
+      <c r="K477" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B478" t="s">
+        <v>77</v>
+      </c>
+      <c r="J478" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K478" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B479" t="s">
+        <v>77</v>
+      </c>
+      <c r="J479" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K479" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B480" t="s">
+        <v>77</v>
+      </c>
+      <c r="J480" s="2">
+        <v>1.6385658914728682</v>
+      </c>
+      <c r="K480" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B481" t="s">
+        <v>77</v>
+      </c>
+      <c r="J481" s="2">
+        <v>1.3970930232558139</v>
+      </c>
+      <c r="K481" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B482" t="s">
+        <v>77</v>
+      </c>
+      <c r="J482" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K482" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B483" t="s">
+        <v>77</v>
+      </c>
+      <c r="J483" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K483" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B484" t="s">
+        <v>77</v>
+      </c>
+      <c r="J484" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K484" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B485" t="s">
+        <v>77</v>
+      </c>
+      <c r="J485" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K485" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B486" t="s">
+        <v>77</v>
+      </c>
+      <c r="J486" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K486" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B487" t="s">
+        <v>77</v>
+      </c>
+      <c r="J487" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K487" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B488" t="s">
+        <v>77</v>
+      </c>
+      <c r="J488" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K488" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B489" t="s">
+        <v>77</v>
+      </c>
+      <c r="J489" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K489" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B490" t="s">
+        <v>77</v>
+      </c>
+      <c r="J490" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K490" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B491" t="s">
+        <v>77</v>
+      </c>
+      <c r="J491" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K491" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B492" t="s">
+        <v>77</v>
+      </c>
+      <c r="J492" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K492" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B493" t="s">
+        <v>77</v>
+      </c>
+      <c r="J493" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K493" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B494" t="s">
+        <v>77</v>
+      </c>
+      <c r="J494" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K494" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B495" t="s">
+        <v>77</v>
+      </c>
+      <c r="J495" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K495" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B496" t="s">
+        <v>77</v>
+      </c>
+      <c r="J496" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K496" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B497" t="s">
+        <v>77</v>
+      </c>
+      <c r="J497" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K497" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B498" t="s">
+        <v>77</v>
+      </c>
+      <c r="J498" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K498" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B499" t="s">
+        <v>77</v>
+      </c>
+      <c r="J499" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K499" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B500" t="s">
+        <v>77</v>
+      </c>
+      <c r="J500" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K500" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B501" t="s">
+        <v>77</v>
+      </c>
+      <c r="J501" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K501" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B502" t="s">
+        <v>77</v>
+      </c>
+      <c r="J502" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K502" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B503" t="s">
+        <v>77</v>
+      </c>
+      <c r="J503" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K503" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B504" t="s">
+        <v>77</v>
+      </c>
+      <c r="J504" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K504" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B505" t="s">
+        <v>77</v>
+      </c>
+      <c r="J505" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K505" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B506" t="s">
+        <v>77</v>
+      </c>
+      <c r="J506" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K506" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B507" t="s">
+        <v>77</v>
+      </c>
+      <c r="J507" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K507" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B508" t="s">
+        <v>77</v>
+      </c>
+      <c r="J508" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K508" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B509" t="s">
+        <v>77</v>
+      </c>
+      <c r="J509" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K509" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B510" t="s">
+        <v>77</v>
+      </c>
+      <c r="J510" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K510" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B511" t="s">
+        <v>77</v>
+      </c>
+      <c r="J511" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K511" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B512" t="s">
+        <v>77</v>
+      </c>
+      <c r="J512" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K512" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B513" t="s">
+        <v>77</v>
+      </c>
+      <c r="J513" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K513" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B514" t="s">
+        <v>77</v>
+      </c>
+      <c r="J514" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K514" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B515" t="s">
+        <v>77</v>
+      </c>
+      <c r="J515" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K515" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B516" t="s">
+        <v>77</v>
+      </c>
+      <c r="J516" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K516" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B517" t="s">
+        <v>77</v>
+      </c>
+      <c r="J517" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K517" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B518" t="s">
+        <v>77</v>
+      </c>
+      <c r="J518" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K518" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B519" t="s">
+        <v>77</v>
+      </c>
+      <c r="J519" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K519" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B520" t="s">
+        <v>77</v>
+      </c>
+      <c r="J520" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K520" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B521" t="s">
+        <v>77</v>
+      </c>
+      <c r="J521" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K521" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B522" t="s">
+        <v>77</v>
+      </c>
+      <c r="J522" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K522" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B523" t="s">
+        <v>77</v>
+      </c>
+      <c r="J523" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K523" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B524" t="s">
+        <v>77</v>
+      </c>
+      <c r="J524" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K524" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B525" t="s">
+        <v>77</v>
+      </c>
+      <c r="J525" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K525" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B526" t="s">
+        <v>77</v>
+      </c>
+      <c r="J526" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K526" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B527" t="s">
+        <v>77</v>
+      </c>
+      <c r="J527" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K527" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B528" t="s">
+        <v>77</v>
+      </c>
+      <c r="J528" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K528" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B529" t="s">
+        <v>77</v>
+      </c>
+      <c r="J529" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K529" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B530" t="s">
+        <v>77</v>
+      </c>
+      <c r="J530" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K530" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B531" t="s">
+        <v>77</v>
+      </c>
+      <c r="J531" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K531" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B532" t="s">
+        <v>77</v>
+      </c>
+      <c r="J532" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K532" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B533" t="s">
+        <v>77</v>
+      </c>
+      <c r="J533" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K533" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B534" t="s">
+        <v>77</v>
+      </c>
+      <c r="J534" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K534" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B535" t="s">
+        <v>77</v>
+      </c>
+      <c r="J535" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K535" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B536" t="s">
+        <v>77</v>
+      </c>
+      <c r="J536" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K536" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B537" t="s">
+        <v>77</v>
+      </c>
+      <c r="J537" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K537" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B538" t="s">
+        <v>77</v>
+      </c>
+      <c r="J538" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K538" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B539" t="s">
+        <v>77</v>
+      </c>
+      <c r="J539" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K539" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B540" t="s">
+        <v>77</v>
+      </c>
+      <c r="J540" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K540" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B541" t="s">
+        <v>77</v>
+      </c>
+      <c r="J541" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K541" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B542" t="s">
+        <v>77</v>
+      </c>
+      <c r="J542" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K542" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B543" t="s">
+        <v>77</v>
+      </c>
+      <c r="J543" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K543" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B544" t="s">
+        <v>77</v>
+      </c>
+      <c r="J544" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K544" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B545" t="s">
+        <v>77</v>
+      </c>
+      <c r="J545" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K545" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B546" t="s">
+        <v>77</v>
+      </c>
+      <c r="J546" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K546" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B547" t="s">
+        <v>77</v>
+      </c>
+      <c r="J547" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K547" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B548" t="s">
+        <v>77</v>
+      </c>
+      <c r="J548" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K548" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B549" t="s">
+        <v>77</v>
+      </c>
+      <c r="J549" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K549" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B550" t="s">
+        <v>77</v>
+      </c>
+      <c r="J550" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K550" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B551" t="s">
+        <v>77</v>
+      </c>
+      <c r="J551" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K551" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B552" t="s">
+        <v>77</v>
+      </c>
+      <c r="J552" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K552" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B553" t="s">
+        <v>77</v>
+      </c>
+      <c r="J553" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K553" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B554" t="s">
+        <v>77</v>
+      </c>
+      <c r="J554" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K554" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B555" t="s">
+        <v>77</v>
+      </c>
+      <c r="J555" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K555" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B556" t="s">
+        <v>77</v>
+      </c>
+      <c r="J556" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K556" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B557" t="s">
+        <v>77</v>
+      </c>
+      <c r="J557" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K557" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B558" t="s">
+        <v>77</v>
+      </c>
+      <c r="J558" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K558" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B559" t="s">
+        <v>77</v>
+      </c>
+      <c r="J559" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K559" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B560" t="s">
+        <v>77</v>
+      </c>
+      <c r="J560" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K560" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B561" t="s">
+        <v>77</v>
+      </c>
+      <c r="J561" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K561" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B562" t="s">
+        <v>77</v>
+      </c>
+      <c r="J562" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K562" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B563" t="s">
+        <v>77</v>
+      </c>
+      <c r="J563" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K563" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B564" t="s">
+        <v>77</v>
+      </c>
+      <c r="J564" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="K564" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B565" t="s">
+        <v>77</v>
+      </c>
+      <c r="J565" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K565" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B566" t="s">
+        <v>77</v>
+      </c>
+      <c r="J566" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K566" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B567" t="s">
+        <v>77</v>
+      </c>
+      <c r="J567" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K567" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B568" t="s">
+        <v>77</v>
+      </c>
+      <c r="J568" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K568" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B569" t="s">
+        <v>77</v>
+      </c>
+      <c r="J569" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K569" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B570" t="s">
+        <v>77</v>
+      </c>
+      <c r="J570" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K570" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B571" t="s">
+        <v>77</v>
+      </c>
+      <c r="J571" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K571" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B572" t="s">
+        <v>77</v>
+      </c>
+      <c r="J572" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K572" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B573" t="s">
+        <v>77</v>
+      </c>
+      <c r="J573" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K573" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B574" t="s">
+        <v>77</v>
+      </c>
+      <c r="J574" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K574" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B575" t="s">
+        <v>77</v>
+      </c>
+      <c r="J575" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K575" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B576" t="s">
+        <v>77</v>
+      </c>
+      <c r="J576" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K576" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B577" t="s">
+        <v>77</v>
+      </c>
+      <c r="J577" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K577" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B578" t="s">
+        <v>77</v>
+      </c>
+      <c r="J578" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K578" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B579" t="s">
+        <v>77</v>
+      </c>
+      <c r="J579" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K579" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B580" t="s">
+        <v>77</v>
+      </c>
+      <c r="J580" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K580" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B581" t="s">
+        <v>77</v>
+      </c>
+      <c r="J581" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K581" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B582" t="s">
+        <v>77</v>
+      </c>
+      <c r="J582" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K582" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B583" t="s">
+        <v>77</v>
+      </c>
+      <c r="J583" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K583" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B584" t="s">
+        <v>77</v>
+      </c>
+      <c r="J584" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K584" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B585" t="s">
+        <v>77</v>
+      </c>
+      <c r="J585" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K585" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B586" t="s">
+        <v>77</v>
+      </c>
+      <c r="J586" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K586" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B587" t="s">
+        <v>77</v>
+      </c>
+      <c r="J587" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="K587" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B588" t="s">
+        <v>77</v>
+      </c>
+      <c r="J588">
+        <v>1.6</v>
+      </c>
+      <c r="K588" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B589" t="s">
+        <v>77</v>
+      </c>
+      <c r="J589">
+        <v>1.6</v>
+      </c>
+      <c r="K589" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B590" t="s">
+        <v>77</v>
+      </c>
+      <c r="J590">
+        <v>1.8</v>
+      </c>
+      <c r="K590" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B591" t="s">
+        <v>77</v>
+      </c>
+      <c r="J591">
+        <v>1.7</v>
+      </c>
+      <c r="K591" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B592" t="s">
+        <v>77</v>
+      </c>
+      <c r="J592">
+        <v>1.6</v>
+      </c>
+      <c r="K592" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B593" t="s">
+        <v>77</v>
+      </c>
+      <c r="J593">
+        <v>1.7</v>
+      </c>
+      <c r="K593" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B594" t="s">
+        <v>77</v>
+      </c>
+      <c r="J594">
+        <v>1.7</v>
+      </c>
+      <c r="K594" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B595" t="s">
+        <v>77</v>
+      </c>
+      <c r="J595">
+        <v>1.7</v>
+      </c>
+      <c r="K595" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B596" t="s">
+        <v>77</v>
+      </c>
+      <c r="J596">
+        <v>1.8</v>
+      </c>
+      <c r="K596" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B597" t="s">
+        <v>77</v>
+      </c>
+      <c r="J597">
+        <v>1.7</v>
+      </c>
+      <c r="K597" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B598" t="s">
+        <v>77</v>
+      </c>
+      <c r="J598">
+        <v>1.8</v>
+      </c>
+      <c r="K598" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B599" t="s">
+        <v>77</v>
+      </c>
+      <c r="J599">
+        <v>1.7</v>
+      </c>
+      <c r="K599" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B600" t="s">
+        <v>77</v>
+      </c>
+      <c r="J600">
+        <v>1.7</v>
+      </c>
+      <c r="K600" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B601" t="s">
+        <v>77</v>
+      </c>
+      <c r="J601">
+        <v>1.7</v>
+      </c>
+      <c r="K601" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B602" t="s">
+        <v>77</v>
+      </c>
+      <c r="J602">
+        <v>1.6</v>
+      </c>
+      <c r="K602" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B603" t="s">
+        <v>77</v>
+      </c>
+      <c r="J603">
+        <v>1.6</v>
+      </c>
+      <c r="K603" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B604" t="s">
+        <v>77</v>
+      </c>
+      <c r="J604">
+        <v>1.6</v>
+      </c>
+      <c r="K604" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B605" t="s">
+        <v>77</v>
+      </c>
+      <c r="J605">
+        <v>1.6</v>
+      </c>
+      <c r="K605" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B606" t="s">
+        <v>77</v>
+      </c>
+      <c r="J606">
+        <v>1.7</v>
+      </c>
+      <c r="K606" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B607" t="s">
+        <v>77</v>
+      </c>
+      <c r="J607">
+        <v>1.7</v>
+      </c>
+      <c r="K607" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B608" t="s">
+        <v>77</v>
+      </c>
+      <c r="J608">
+        <v>1.8</v>
+      </c>
+      <c r="K608" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B609" t="s">
+        <v>77</v>
+      </c>
+      <c r="J609">
+        <v>1.7</v>
+      </c>
+      <c r="K609" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B610" t="s">
+        <v>77</v>
+      </c>
+      <c r="J610">
+        <v>1.8</v>
+      </c>
+      <c r="K610" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B611" t="s">
+        <v>77</v>
+      </c>
+      <c r="J611">
+        <v>1.7</v>
+      </c>
+      <c r="K611" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B612" t="s">
+        <v>77</v>
+      </c>
+      <c r="J612">
+        <v>1.8</v>
+      </c>
+      <c r="K612" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B613" t="s">
+        <v>77</v>
+      </c>
+      <c r="J613">
+        <v>1.7</v>
+      </c>
+      <c r="K613" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B614" t="s">
+        <v>77</v>
+      </c>
+      <c r="J614">
+        <v>1.7</v>
+      </c>
+      <c r="K614" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B615" t="s">
+        <v>77</v>
+      </c>
+      <c r="J615">
+        <v>1.5</v>
+      </c>
+      <c r="K615" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B616" t="s">
+        <v>77</v>
+      </c>
+      <c r="J616">
+        <v>1.8</v>
+      </c>
+      <c r="K616" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B617" t="s">
+        <v>77</v>
+      </c>
+      <c r="J617">
+        <v>1.7</v>
+      </c>
+      <c r="K617" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B618" t="s">
+        <v>77</v>
+      </c>
+      <c r="J618">
+        <v>1.7</v>
+      </c>
+      <c r="K618" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B619" t="s">
+        <v>77</v>
+      </c>
+      <c r="J619">
+        <v>1.7</v>
+      </c>
+      <c r="K619" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B620" t="s">
+        <v>77</v>
+      </c>
+      <c r="J620">
+        <v>1.7</v>
+      </c>
+      <c r="K620" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B621" t="s">
+        <v>77</v>
+      </c>
+      <c r="J621">
+        <v>1.5</v>
+      </c>
+      <c r="K621" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B622" t="s">
+        <v>77</v>
+      </c>
+      <c r="J622">
+        <v>1.7</v>
+      </c>
+      <c r="K622" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B623" t="s">
+        <v>77</v>
+      </c>
+      <c r="J623">
+        <v>1.6</v>
+      </c>
+      <c r="K623" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B624" t="s">
+        <v>77</v>
+      </c>
+      <c r="J624">
+        <v>1.6</v>
+      </c>
+      <c r="K624" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B625" t="s">
+        <v>77</v>
+      </c>
+      <c r="J625">
+        <v>1.6</v>
+      </c>
+      <c r="K625" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B626" t="s">
+        <v>77</v>
+      </c>
+      <c r="J626">
+        <v>1.6</v>
+      </c>
+      <c r="K626" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B627" t="s">
+        <v>77</v>
+      </c>
+      <c r="J627">
+        <v>1.6</v>
+      </c>
+      <c r="K627" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B628" t="s">
+        <v>77</v>
+      </c>
+      <c r="J628">
+        <v>1.6</v>
+      </c>
+      <c r="K628" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B629" t="s">
+        <v>77</v>
+      </c>
+      <c r="J629">
+        <v>1.5</v>
+      </c>
+      <c r="K629" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B630" t="s">
+        <v>77</v>
+      </c>
+      <c r="J630">
+        <v>1.7</v>
+      </c>
+      <c r="K630" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B631" t="s">
+        <v>77</v>
+      </c>
+      <c r="J631">
+        <v>1.5</v>
+      </c>
+      <c r="K631" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B632" t="s">
+        <v>77</v>
+      </c>
+      <c r="J632">
+        <v>1.6</v>
+      </c>
+      <c r="K632" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B633" t="s">
+        <v>77</v>
+      </c>
+      <c r="J633">
+        <v>1.6</v>
+      </c>
+      <c r="K633" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B634" t="s">
+        <v>77</v>
+      </c>
+      <c r="J634">
+        <v>1.8</v>
+      </c>
+      <c r="K634" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B635" t="s">
+        <v>77</v>
+      </c>
+      <c r="J635">
+        <v>1.6</v>
+      </c>
+      <c r="K635" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B636" t="s">
+        <v>77</v>
+      </c>
+      <c r="J636">
+        <v>1.6</v>
+      </c>
+      <c r="K636" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B637" t="s">
+        <v>77</v>
+      </c>
+      <c r="J637">
+        <v>1.7</v>
+      </c>
+      <c r="K637" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B638" t="s">
+        <v>77</v>
+      </c>
+      <c r="J638">
+        <v>1.7</v>
+      </c>
+      <c r="K638" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B639" t="s">
+        <v>77</v>
+      </c>
+      <c r="J639">
+        <v>1.7</v>
+      </c>
+      <c r="K639" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B640" t="s">
+        <v>77</v>
+      </c>
+      <c r="J640">
+        <v>1.7</v>
+      </c>
+      <c r="K640" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B641" t="s">
+        <v>77</v>
+      </c>
+      <c r="J641">
+        <v>1.7</v>
+      </c>
+      <c r="K641" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B642" t="s">
+        <v>77</v>
+      </c>
+      <c r="J642">
+        <v>1.6</v>
+      </c>
+      <c r="K642" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B643" t="s">
+        <v>77</v>
+      </c>
+      <c r="J643">
+        <v>1.6</v>
+      </c>
+      <c r="K643" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B644" t="s">
+        <v>77</v>
+      </c>
+      <c r="J644">
+        <v>1.7</v>
+      </c>
+      <c r="K644" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B645" t="s">
+        <v>77</v>
+      </c>
+      <c r="J645">
+        <v>1.5</v>
+      </c>
+      <c r="K645" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B646" t="s">
+        <v>77</v>
+      </c>
+      <c r="J646">
+        <v>1.5</v>
+      </c>
+      <c r="K646" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B647" t="s">
+        <v>77</v>
+      </c>
+      <c r="J647">
+        <v>1.8</v>
+      </c>
+      <c r="K647" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B648" t="s">
+        <v>77</v>
+      </c>
+      <c r="J648">
+        <v>1.8</v>
+      </c>
+      <c r="K648" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B649" t="s">
+        <v>77</v>
+      </c>
+      <c r="J649">
+        <v>1.8</v>
+      </c>
+      <c r="K649" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B650" t="s">
+        <v>77</v>
+      </c>
+      <c r="J650">
+        <v>1.7</v>
+      </c>
+      <c r="K650" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B651" t="s">
+        <v>77</v>
+      </c>
+      <c r="J651">
+        <v>1.7</v>
+      </c>
+      <c r="K651" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B652" t="s">
+        <v>77</v>
+      </c>
+      <c r="J652">
+        <v>1.6</v>
+      </c>
+      <c r="K652" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B653" t="s">
+        <v>77</v>
+      </c>
+      <c r="J653">
+        <v>1.6</v>
+      </c>
+      <c r="K653" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B654" t="s">
+        <v>77</v>
+      </c>
+      <c r="J654">
+        <v>1.5</v>
+      </c>
+      <c r="K654" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B655" t="s">
+        <v>77</v>
+      </c>
+      <c r="J655">
+        <v>1.8</v>
+      </c>
+      <c r="K655" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B656" t="s">
+        <v>77</v>
+      </c>
+      <c r="J656">
+        <v>1.8</v>
+      </c>
+      <c r="K656" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B657" t="s">
+        <v>77</v>
+      </c>
+      <c r="J657">
+        <v>1.7</v>
+      </c>
+      <c r="K657" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B658" t="s">
+        <v>77</v>
+      </c>
+      <c r="J658">
+        <v>1.7</v>
+      </c>
+      <c r="K658" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B659" t="s">
+        <v>77</v>
+      </c>
+      <c r="J659">
+        <v>1.7</v>
+      </c>
+      <c r="K659" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B660" t="s">
+        <v>77</v>
+      </c>
+      <c r="J660">
+        <v>1.6</v>
+      </c>
+      <c r="K660" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B661" t="s">
+        <v>77</v>
+      </c>
+      <c r="J661">
+        <v>1.6</v>
+      </c>
+      <c r="K661" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B662" t="s">
+        <v>77</v>
+      </c>
+      <c r="J662">
+        <v>1.7</v>
+      </c>
+      <c r="K662" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B663" t="s">
+        <v>77</v>
+      </c>
+      <c r="J663">
+        <v>1.6</v>
+      </c>
+      <c r="K663" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B664" t="s">
+        <v>77</v>
+      </c>
+      <c r="J664">
+        <v>1.6</v>
+      </c>
+      <c r="K664" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B665" t="s">
+        <v>77</v>
+      </c>
+      <c r="J665">
+        <v>1.6</v>
+      </c>
+      <c r="K665" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B666" t="s">
+        <v>77</v>
+      </c>
+      <c r="J666">
+        <v>1.7</v>
+      </c>
+      <c r="K666" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B667" t="s">
+        <v>77</v>
+      </c>
+      <c r="J667">
+        <v>1.7</v>
+      </c>
+      <c r="K667" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B668" t="s">
+        <v>77</v>
+      </c>
+      <c r="J668">
+        <v>1.7</v>
+      </c>
+      <c r="K668" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B669" t="s">
+        <v>77</v>
+      </c>
+      <c r="J669">
+        <v>1.7</v>
+      </c>
+      <c r="K669" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B670" t="s">
+        <v>77</v>
+      </c>
+      <c r="J670">
+        <v>1.7</v>
+      </c>
+      <c r="K670" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B671" t="s">
+        <v>77</v>
+      </c>
+      <c r="J671">
+        <v>1.7</v>
+      </c>
+      <c r="K671" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B672" t="s">
+        <v>77</v>
+      </c>
+      <c r="J672">
+        <v>1.7</v>
+      </c>
+      <c r="K672" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B673" t="s">
+        <v>77</v>
+      </c>
+      <c r="J673">
+        <v>1.7</v>
+      </c>
+      <c r="K673" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B674" t="s">
+        <v>77</v>
+      </c>
+      <c r="J674">
+        <v>1.6</v>
+      </c>
+      <c r="K674" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B675" t="s">
+        <v>77</v>
+      </c>
+      <c r="J675">
+        <v>1.7</v>
+      </c>
+      <c r="K675" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B676" t="s">
+        <v>77</v>
+      </c>
+      <c r="J676">
+        <v>1.6</v>
+      </c>
+      <c r="K676" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B677" t="s">
+        <v>77</v>
+      </c>
+      <c r="J677">
+        <v>1.7</v>
+      </c>
+      <c r="K677" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B678" t="s">
+        <v>77</v>
+      </c>
+      <c r="J678">
+        <v>1.6</v>
+      </c>
+      <c r="K678" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B679" t="s">
+        <v>77</v>
+      </c>
+      <c r="J679">
+        <v>1.6</v>
+      </c>
+      <c r="K679" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B680" t="s">
+        <v>77</v>
+      </c>
+      <c r="J680">
+        <v>1.7</v>
+      </c>
+      <c r="K680" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B681" t="s">
+        <v>77</v>
+      </c>
+      <c r="J681">
+        <v>1.6</v>
+      </c>
+      <c r="K681" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B682" t="s">
+        <v>77</v>
+      </c>
+      <c r="J682">
+        <v>1.8</v>
+      </c>
+      <c r="K682" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B683" t="s">
+        <v>77</v>
+      </c>
+      <c r="J683">
+        <v>1.5</v>
+      </c>
+      <c r="K683" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B684" t="s">
+        <v>77</v>
+      </c>
+      <c r="J684">
+        <v>1.7</v>
+      </c>
+      <c r="K684" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B685" t="s">
+        <v>77</v>
+      </c>
+      <c r="J685">
+        <v>1.7</v>
+      </c>
+      <c r="K685" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B686" t="s">
+        <v>77</v>
+      </c>
+      <c r="J686">
+        <v>1.7</v>
+      </c>
+      <c r="K686" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B687" t="s">
+        <v>77</v>
+      </c>
+      <c r="J687">
+        <v>1.7</v>
+      </c>
+      <c r="K687" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B688" t="s">
+        <v>77</v>
+      </c>
+      <c r="J688">
+        <v>1.7</v>
+      </c>
+      <c r="K688" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B689" t="s">
+        <v>77</v>
+      </c>
+      <c r="J689">
+        <v>1.6</v>
+      </c>
+      <c r="K689" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B690" t="s">
+        <v>77</v>
+      </c>
+      <c r="J690">
+        <v>1.7</v>
+      </c>
+      <c r="K690" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B691" t="s">
+        <v>77</v>
+      </c>
+      <c r="J691">
+        <v>1.6</v>
+      </c>
+      <c r="K691" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B692" t="s">
+        <v>77</v>
+      </c>
+      <c r="J692">
+        <v>1.6</v>
+      </c>
+      <c r="K692" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B693" t="s">
+        <v>77</v>
+      </c>
+      <c r="J693">
+        <v>1.5</v>
+      </c>
+      <c r="K693" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B694" t="s">
+        <v>77</v>
+      </c>
+      <c r="J694">
+        <v>1.6</v>
+      </c>
+      <c r="K694" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J421" xr:uid="{A5477796-89D2-45A8-B7D4-B66E078F09A0}"/>
+  <autoFilter ref="A1:J694" xr:uid="{A5477796-89D2-45A8-B7D4-B66E078F09A0}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="superior"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="2.438914626"/>
+        <filter val="2.446657842"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Coregonine-Temperature-Experiment-EmbryoMeasurements.xlsx
+++ b/data/Coregonine-Temperature-Experiment-EmbryoMeasurements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Latitude-Embryo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C595F5-DFEA-7A44-B896-C449F5FD553B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD47E58A-F84B-F34E-A4A1-F246EDA0C416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36700" yWindow="4480" windowWidth="36300" windowHeight="20160" xr2:uid="{CBE3460D-82C6-0746-8A17-5A7414D36BC9}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19220" activeTab="1" xr2:uid="{CBE3460D-82C6-0746-8A17-5A7414D36BC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -637,12 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D8460A-7D7B-F04F-B758-EA68E31C4B0C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K694"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K120" sqref="K120"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,7 +693,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44174</v>
       </c>
@@ -730,7 +729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44174</v>
       </c>
@@ -766,7 +765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44174</v>
       </c>
@@ -802,7 +801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>44174</v>
       </c>
@@ -838,7 +837,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>44174</v>
       </c>
@@ -874,7 +873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>44174</v>
       </c>
@@ -910,7 +909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>44174</v>
       </c>
@@ -946,7 +945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>44174</v>
       </c>
@@ -982,7 +981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>44174</v>
       </c>
@@ -1018,7 +1017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>44174</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44174</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44174</v>
       </c>
@@ -1126,7 +1125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44174</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44174</v>
       </c>
@@ -1198,7 +1197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44174</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44174</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44174</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44174</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44174</v>
       </c>
@@ -1378,7 +1377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44174</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44174</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44174</v>
       </c>
@@ -1486,7 +1485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>44174</v>
       </c>
@@ -1522,7 +1521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>44174</v>
       </c>
@@ -1558,7 +1557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>44174</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>44174</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>44174</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>44174</v>
       </c>
@@ -1702,7 +1701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>44174</v>
       </c>
@@ -1738,7 +1737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>44174</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>44174</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>44174</v>
       </c>
@@ -1846,7 +1845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>44174</v>
       </c>
@@ -1882,7 +1881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44174</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>44174</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>44174</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44174</v>
       </c>
@@ -2026,7 +2025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>44174</v>
       </c>
@@ -2062,7 +2061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>44174</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44174</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>44174</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>44174</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>44174</v>
       </c>
@@ -2242,7 +2241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44174</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44174</v>
       </c>
@@ -2314,7 +2313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>44174</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>44174</v>
       </c>
@@ -2386,7 +2385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>44174</v>
       </c>
@@ -2422,7 +2421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44174</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>44174</v>
       </c>
@@ -2494,7 +2493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>44174</v>
       </c>
@@ -2530,7 +2529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>44174</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>44174</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44174</v>
       </c>
@@ -2638,7 +2637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>44174</v>
       </c>
@@ -2674,7 +2673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>44174</v>
       </c>
@@ -2710,7 +2709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>44174</v>
       </c>
@@ -2746,7 +2745,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>44174</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>44174</v>
       </c>
@@ -2818,7 +2817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>44174</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>44174</v>
       </c>
@@ -2890,7 +2889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>44174</v>
       </c>
@@ -2926,7 +2925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>44174</v>
       </c>
@@ -2962,7 +2961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>44174</v>
       </c>
@@ -2998,7 +2997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>44174</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44174</v>
       </c>
@@ -3070,7 +3069,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>44174</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>44174</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>44174</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>44174</v>
       </c>
@@ -3214,7 +3213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>44174</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>44174</v>
       </c>
@@ -3286,7 +3285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>44174</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>44174</v>
       </c>
@@ -3358,7 +3357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>44174</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>44174</v>
       </c>
@@ -3430,7 +3429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>44174</v>
       </c>
@@ -3466,7 +3465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44174</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>44174</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>44174</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>44174</v>
       </c>
@@ -3610,7 +3609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>44174</v>
       </c>
@@ -3646,7 +3645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>44174</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>44174</v>
       </c>
@@ -3718,7 +3717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>44174</v>
       </c>
@@ -3754,7 +3753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>44174</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>44174</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>44174</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>44174</v>
       </c>
@@ -3898,7 +3897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44174</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>44174</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>44174</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>44174</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>44174</v>
       </c>
@@ -4078,7 +4077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>44174</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>44174</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>44174</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>44174</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>44174</v>
       </c>
@@ -4258,7 +4257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>44174</v>
       </c>
@@ -4294,7 +4293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>44174</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44174</v>
       </c>
@@ -4366,7 +4365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>44174</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>44174</v>
       </c>
@@ -4438,7 +4437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>44174</v>
       </c>
@@ -4474,7 +4473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>44174</v>
       </c>
@@ -4510,7 +4509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>44174</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>44174</v>
       </c>
@@ -4582,7 +4581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>44174</v>
       </c>
@@ -4618,7 +4617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>44174</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>44174</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>44174</v>
       </c>
@@ -4726,7 +4725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>44174</v>
       </c>
@@ -4762,7 +4761,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44174</v>
       </c>
@@ -4798,7 +4797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>44174</v>
       </c>
@@ -4870,7 +4869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>44174</v>
       </c>
@@ -4906,7 +4905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>44174</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>44174</v>
       </c>
@@ -5014,7 +5013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>44174</v>
       </c>
@@ -5050,7 +5049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>44174</v>
       </c>
@@ -5086,7 +5085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>44174</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>44174</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>44174</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44174</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>44174</v>
       </c>
@@ -5266,7 +5265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>44174</v>
       </c>
@@ -5302,7 +5301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>44174</v>
       </c>
@@ -5338,7 +5337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>44174</v>
       </c>
@@ -5374,7 +5373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>44174</v>
       </c>
@@ -5410,7 +5409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>44174</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>44174</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>44174</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>44174</v>
       </c>
@@ -5554,7 +5553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>44174</v>
       </c>
@@ -5590,7 +5589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>44174</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44174</v>
       </c>
@@ -5662,7 +5661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>44174</v>
       </c>
@@ -5698,7 +5697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>44174</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>44174</v>
       </c>
@@ -5770,7 +5769,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>44174</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>44174</v>
       </c>
@@ -5842,7 +5841,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>44174</v>
       </c>
@@ -5878,7 +5877,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>44174</v>
       </c>
@@ -5914,7 +5913,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>44174</v>
       </c>
@@ -5950,7 +5949,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>44174</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>44174</v>
       </c>
@@ -6022,7 +6021,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>44174</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44174</v>
       </c>
@@ -6094,7 +6093,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>44174</v>
       </c>
@@ -6130,7 +6129,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>44174</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>44174</v>
       </c>
@@ -6202,7 +6201,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>44174</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>44174</v>
       </c>
@@ -6274,7 +6273,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>44174</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>44174</v>
       </c>
@@ -6346,7 +6345,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>44174</v>
       </c>
@@ -6382,7 +6381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>44174</v>
       </c>
@@ -6418,7 +6417,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>44174</v>
       </c>
@@ -6454,7 +6453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>44174</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44174</v>
       </c>
@@ -6526,7 +6525,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>44174</v>
       </c>
@@ -6562,7 +6561,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>44174</v>
       </c>
@@ -6598,7 +6597,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>44174</v>
       </c>
@@ -6634,7 +6633,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>44174</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>44174</v>
       </c>
@@ -6706,7 +6705,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>44174</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>44174</v>
       </c>
@@ -6778,7 +6777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>44174</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>44174</v>
       </c>
@@ -6850,7 +6849,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>44174</v>
       </c>
@@ -6886,7 +6885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>44174</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44174</v>
       </c>
@@ -6958,7 +6957,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>44174</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>44174</v>
       </c>
@@ -7030,7 +7029,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>44174</v>
       </c>
@@ -7066,7 +7065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>44174</v>
       </c>
@@ -7102,7 +7101,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>44174</v>
       </c>
@@ -7138,7 +7137,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>44174</v>
       </c>
@@ -7174,7 +7173,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>44163</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>44163</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>44163</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>44163</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>44163</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44163</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>44163</v>
       </c>
@@ -7426,7 +7425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>44163</v>
       </c>
@@ -7462,7 +7461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>44163</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>44163</v>
       </c>
@@ -7534,7 +7533,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>44163</v>
       </c>
@@ -7570,7 +7569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>44163</v>
       </c>
@@ -7606,7 +7605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>44163</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>44163</v>
       </c>
@@ -7678,7 +7677,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>44163</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>44163</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>44163</v>
       </c>
@@ -7786,7 +7785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44163</v>
       </c>
@@ -7822,7 +7821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>44163</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>44163</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>44163</v>
       </c>
@@ -7930,7 +7929,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>44163</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>44163</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>44163</v>
       </c>
@@ -8038,7 +8037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>44163</v>
       </c>
@@ -8074,7 +8073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>44163</v>
       </c>
@@ -8110,7 +8109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>44163</v>
       </c>
@@ -8146,7 +8145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>44163</v>
       </c>
@@ -8182,7 +8181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>44163</v>
       </c>
@@ -8218,7 +8217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44163</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>44163</v>
       </c>
@@ -8290,7 +8289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>44163</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>44163</v>
       </c>
@@ -8362,7 +8361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>44163</v>
       </c>
@@ -8398,7 +8397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>44163</v>
       </c>
@@ -8434,7 +8433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>44163</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>44163</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>44163</v>
       </c>
@@ -8542,7 +8541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>44163</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>44163</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>44163</v>
       </c>
@@ -8650,7 +8649,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44163</v>
       </c>
@@ -8686,7 +8685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>44163</v>
       </c>
@@ -8722,7 +8721,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>44163</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>44163</v>
       </c>
@@ -8794,7 +8793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>44163</v>
       </c>
@@ -8830,7 +8829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>44163</v>
       </c>
@@ -8866,7 +8865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>44163</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>44163</v>
       </c>
@@ -8938,7 +8937,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>44163</v>
       </c>
@@ -8974,7 +8973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>44163</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>44163</v>
       </c>
@@ -9046,7 +9045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>44163</v>
       </c>
@@ -9082,7 +9081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44163</v>
       </c>
@@ -9118,7 +9117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>44163</v>
       </c>
@@ -9154,7 +9153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>44163</v>
       </c>
@@ -9190,7 +9189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>44163</v>
       </c>
@@ -9226,7 +9225,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>44163</v>
       </c>
@@ -9262,7 +9261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>44163</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>44163</v>
       </c>
@@ -9334,7 +9333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>44163</v>
       </c>
@@ -9370,7 +9369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>44163</v>
       </c>
@@ -9406,7 +9405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44163</v>
       </c>
@@ -9442,7 +9441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44163</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>44163</v>
       </c>
@@ -9514,7 +9513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44163</v>
       </c>
@@ -9550,7 +9549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>44163</v>
       </c>
@@ -9586,7 +9585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>44163</v>
       </c>
@@ -9622,7 +9621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>44163</v>
       </c>
@@ -9658,7 +9657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>44163</v>
       </c>
@@ -9694,7 +9693,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>44163</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>44163</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>44163</v>
       </c>
@@ -9802,7 +9801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>44163</v>
       </c>
@@ -9838,7 +9837,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>44163</v>
       </c>
@@ -9874,7 +9873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>44163</v>
       </c>
@@ -9910,7 +9909,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>44163</v>
       </c>
@@ -9946,7 +9945,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44163</v>
       </c>
@@ -9982,7 +9981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>44163</v>
       </c>
@@ -10018,7 +10017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>44163</v>
       </c>
@@ -10054,7 +10053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>44163</v>
       </c>
@@ -10090,7 +10089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>44163</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>44163</v>
       </c>
@@ -10162,7 +10161,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>44163</v>
       </c>
@@ -10198,7 +10197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>44163</v>
       </c>
@@ -10234,7 +10233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>44163</v>
       </c>
@@ -10270,7 +10269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>44163</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>44163</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>44163</v>
       </c>
@@ -10378,7 +10377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44163</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>44163</v>
       </c>
@@ -10450,7 +10449,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>44163</v>
       </c>
@@ -10486,7 +10485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>44163</v>
       </c>
@@ -10522,7 +10521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>44163</v>
       </c>
@@ -10558,7 +10557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>44163</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>44163</v>
       </c>
@@ -10630,7 +10629,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>44163</v>
       </c>
@@ -10666,7 +10665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>44163</v>
       </c>
@@ -10702,7 +10701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>44163</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>44163</v>
       </c>
@@ -10774,7 +10773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>44163</v>
       </c>
@@ -10810,7 +10809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44163</v>
       </c>
@@ -10846,7 +10845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>44163</v>
       </c>
@@ -10882,7 +10881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>44163</v>
       </c>
@@ -10918,7 +10917,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>44163</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>44163</v>
       </c>
@@ -10990,7 +10989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>44163</v>
       </c>
@@ -11026,7 +11025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>44163</v>
       </c>
@@ -11062,7 +11061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>44163</v>
       </c>
@@ -11098,7 +11097,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>44163</v>
       </c>
@@ -11134,7 +11133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>44163</v>
       </c>
@@ -11170,7 +11169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>44163</v>
       </c>
@@ -11206,7 +11205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>44163</v>
       </c>
@@ -11242,7 +11241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>44163</v>
       </c>
@@ -11278,7 +11277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>44163</v>
       </c>
@@ -11314,7 +11313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>44163</v>
       </c>
@@ -11350,7 +11349,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>44163</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>44163</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>44163</v>
       </c>
@@ -11458,7 +11457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>44163</v>
       </c>
@@ -11494,7 +11493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>44163</v>
       </c>
@@ -11530,7 +11529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>44163</v>
       </c>
@@ -11566,7 +11565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>44163</v>
       </c>
@@ -11602,7 +11601,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>44163</v>
       </c>
@@ -11638,7 +11637,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>44163</v>
       </c>
@@ -11674,7 +11673,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>44163</v>
       </c>
@@ -11710,7 +11709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>44163</v>
       </c>
@@ -11746,7 +11745,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>44163</v>
       </c>
@@ -11782,7 +11781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>44163</v>
       </c>
@@ -11818,7 +11817,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>44163</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>44163</v>
       </c>
@@ -11890,7 +11889,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>44163</v>
       </c>
@@ -11926,7 +11925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>44163</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>44163</v>
       </c>
@@ -11998,7 +11997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>44163</v>
       </c>
@@ -12034,7 +12033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>44163</v>
       </c>
@@ -12070,7 +12069,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>44163</v>
       </c>
@@ -12106,7 +12105,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>44163</v>
       </c>
@@ -12142,7 +12141,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>44163</v>
       </c>
@@ -12178,7 +12177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>44163</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>44163</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>44163</v>
       </c>
@@ -12286,7 +12285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>44163</v>
       </c>
@@ -12322,7 +12321,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>44163</v>
       </c>
@@ -12358,7 +12357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>44163</v>
       </c>
@@ -12394,7 +12393,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>44163</v>
       </c>
@@ -12430,7 +12429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>44163</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>44163</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>44163</v>
       </c>
@@ -12538,7 +12537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>44163</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>44163</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>44163</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>44163</v>
       </c>
@@ -12682,7 +12681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>44163</v>
       </c>
@@ -12718,7 +12717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>44163</v>
       </c>
@@ -12754,7 +12753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>44163</v>
       </c>
@@ -12790,7 +12789,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>44163</v>
       </c>
@@ -12826,7 +12825,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>44163</v>
       </c>
@@ -12862,7 +12861,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>44163</v>
       </c>
@@ -12898,7 +12897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>44163</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>44163</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>44163</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>44163</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>44163</v>
       </c>
@@ -13078,7 +13077,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>44163</v>
       </c>
@@ -13114,7 +13113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>44163</v>
       </c>
@@ -13150,7 +13149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>44163</v>
       </c>
@@ -13186,7 +13185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>44163</v>
       </c>
@@ -13222,7 +13221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>44163</v>
       </c>
@@ -13258,7 +13257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>44163</v>
       </c>
@@ -13294,7 +13293,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>44163</v>
       </c>
@@ -13330,7 +13329,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>44163</v>
       </c>
@@ -13366,7 +13365,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>44163</v>
       </c>
@@ -13402,7 +13401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>44163</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>44163</v>
       </c>
@@ -13474,7 +13473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>44163</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>44163</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>44163</v>
       </c>
@@ -13582,7 +13581,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>44163</v>
       </c>
@@ -13618,7 +13617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>44163</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>44163</v>
       </c>
@@ -13690,7 +13689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>44163</v>
       </c>
@@ -13726,7 +13725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>44163</v>
       </c>
@@ -13762,7 +13761,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>44163</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>44163</v>
       </c>
@@ -13834,7 +13833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>44163</v>
       </c>
@@ -13870,7 +13869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>44163</v>
       </c>
@@ -13906,7 +13905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>44163</v>
       </c>
@@ -13942,7 +13941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>44163</v>
       </c>
@@ -13978,7 +13977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>44163</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>44163</v>
       </c>
@@ -14050,7 +14049,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>44163</v>
       </c>
@@ -14086,7 +14085,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>44163</v>
       </c>
@@ -14122,7 +14121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>44163</v>
       </c>
@@ -14158,7 +14157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>44163</v>
       </c>
@@ -14194,7 +14193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>44163</v>
       </c>
@@ -14230,7 +14229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>44163</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>44163</v>
       </c>
@@ -14302,7 +14301,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>44163</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>44163</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>44163</v>
       </c>
@@ -14410,7 +14409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>44163</v>
       </c>
@@ -14446,7 +14445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>44163</v>
       </c>
@@ -14482,7 +14481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>44163</v>
       </c>
@@ -14518,7 +14517,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>44163</v>
       </c>
@@ -14554,7 +14553,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>44163</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>44163</v>
       </c>
@@ -14626,7 +14625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>44163</v>
       </c>
@@ -14662,7 +14661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>44163</v>
       </c>
@@ -14698,7 +14697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>44163</v>
       </c>
@@ -14734,7 +14733,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>44163</v>
       </c>
@@ -14770,7 +14769,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>44163</v>
       </c>
@@ -14806,7 +14805,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>44163</v>
       </c>
@@ -14842,7 +14841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>44163</v>
       </c>
@@ -14878,7 +14877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>44163</v>
       </c>
@@ -14914,7 +14913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>44163</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>44163</v>
       </c>
@@ -14986,7 +14985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>44163</v>
       </c>
@@ -15022,7 +15021,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>44163</v>
       </c>
@@ -15058,7 +15057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>44163</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>44163</v>
       </c>
@@ -15130,7 +15129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>44163</v>
       </c>
@@ -15166,7 +15165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>44163</v>
       </c>
@@ -15202,7 +15201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>44163</v>
       </c>
@@ -15238,7 +15237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>44163</v>
       </c>
@@ -15274,7 +15273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>44163</v>
       </c>
@@ -15310,7 +15309,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>44163</v>
       </c>
@@ -15346,7 +15345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>44163</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>44163</v>
       </c>
@@ -15418,7 +15417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>44163</v>
       </c>
@@ -15454,7 +15453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>44163</v>
       </c>
@@ -15490,7 +15489,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>44163</v>
       </c>
@@ -15526,7 +15525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>44163</v>
       </c>
@@ -15562,7 +15561,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>44163</v>
       </c>
@@ -15598,7 +15597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>44163</v>
       </c>
@@ -15634,7 +15633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>44163</v>
       </c>
@@ -15670,7 +15669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>44163</v>
       </c>
@@ -15706,7 +15705,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>44163</v>
       </c>
@@ -15742,7 +15741,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>44163</v>
       </c>
@@ -15778,7 +15777,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>44163</v>
       </c>
@@ -15814,7 +15813,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>43403</v>
       </c>
@@ -15828,7 +15827,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>43403</v>
       </c>
@@ -15842,7 +15841,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>43403</v>
       </c>
@@ -15856,7 +15855,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>43403</v>
       </c>
@@ -15870,7 +15869,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>43403</v>
       </c>
@@ -15884,7 +15883,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>43403</v>
       </c>
@@ -15898,7 +15897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>43403</v>
       </c>
@@ -15912,7 +15911,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>43403</v>
       </c>
@@ -15926,7 +15925,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>43403</v>
       </c>
@@ -15940,7 +15939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>43403</v>
       </c>
@@ -15954,7 +15953,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>43403</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>43403</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>43403</v>
       </c>
@@ -15996,7 +15995,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>43403</v>
       </c>
@@ -16010,7 +16009,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>43403</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>43403</v>
       </c>
@@ -16038,7 +16037,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>43403</v>
       </c>
@@ -16052,7 +16051,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>43403</v>
       </c>
@@ -16066,7 +16065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>43403</v>
       </c>
@@ -16080,7 +16079,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>43403</v>
       </c>
@@ -16094,7 +16093,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>43403</v>
       </c>
@@ -16108,7 +16107,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>43403</v>
       </c>
@@ -16122,7 +16121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>43403</v>
       </c>
@@ -16136,7 +16135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>43403</v>
       </c>
@@ -16150,7 +16149,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>43403</v>
       </c>
@@ -16164,7 +16163,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>43403</v>
       </c>
@@ -16178,7 +16177,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>43403</v>
       </c>
@@ -16192,7 +16191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>43403</v>
       </c>
@@ -16206,7 +16205,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>43403</v>
       </c>
@@ -16220,7 +16219,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>43403</v>
       </c>
@@ -16234,7 +16233,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>43403</v>
       </c>
@@ -16248,7 +16247,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>43403</v>
       </c>
@@ -16262,7 +16261,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>43403</v>
       </c>
@@ -16276,7 +16275,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>43403</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>43403</v>
       </c>
@@ -16304,7 +16303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>43403</v>
       </c>
@@ -16318,7 +16317,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>43403</v>
       </c>
@@ -16332,7 +16331,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>43403</v>
       </c>
@@ -16346,7 +16345,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>43403</v>
       </c>
@@ -16360,7 +16359,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>43403</v>
       </c>
@@ -16374,7 +16373,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>43403</v>
       </c>
@@ -16388,7 +16387,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>43403</v>
       </c>
@@ -16402,7 +16401,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>43403</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>43403</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>43403</v>
       </c>
@@ -16444,7 +16443,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>43403</v>
       </c>
@@ -16458,7 +16457,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>43403</v>
       </c>
@@ -16472,7 +16471,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>43403</v>
       </c>
@@ -16486,7 +16485,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>43403</v>
       </c>
@@ -16500,7 +16499,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>43403</v>
       </c>
@@ -16514,7 +16513,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>43403</v>
       </c>
@@ -16528,7 +16527,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>43403</v>
       </c>
@@ -16542,7 +16541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>43403</v>
       </c>
@@ -16556,7 +16555,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>43403</v>
       </c>
@@ -16570,7 +16569,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>43403</v>
       </c>
@@ -16584,7 +16583,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>43403</v>
       </c>
@@ -16598,7 +16597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>43403</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>43403</v>
       </c>
@@ -16626,7 +16625,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>43403</v>
       </c>
@@ -16640,7 +16639,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>43403</v>
       </c>
@@ -16654,7 +16653,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>44139</v>
       </c>
@@ -16668,7 +16667,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="483" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>44139</v>
       </c>
@@ -16682,7 +16681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="484" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>44139</v>
       </c>
@@ -16696,7 +16695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="485" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>44139</v>
       </c>
@@ -16710,7 +16709,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="486" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>44139</v>
       </c>
@@ -16724,7 +16723,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>44139</v>
       </c>
@@ -16738,7 +16737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="488" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>44139</v>
       </c>
@@ -16752,7 +16751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="489" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>44139</v>
       </c>
@@ -16766,7 +16765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>44139</v>
       </c>
@@ -16780,7 +16779,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="491" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>44139</v>
       </c>
@@ -16794,7 +16793,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="492" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>44139</v>
       </c>
@@ -16808,7 +16807,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="493" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>44139</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="494" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>44139</v>
       </c>
@@ -16836,7 +16835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="495" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>44139</v>
       </c>
@@ -16850,7 +16849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="496" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>44139</v>
       </c>
@@ -16864,7 +16863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="497" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>44139</v>
       </c>
@@ -16878,7 +16877,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="498" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>44139</v>
       </c>
@@ -16892,7 +16891,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="499" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>44139</v>
       </c>
@@ -16906,7 +16905,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="500" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>44139</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="501" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>44139</v>
       </c>
@@ -16934,7 +16933,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="502" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>44139</v>
       </c>
@@ -16948,7 +16947,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="503" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>44139</v>
       </c>
@@ -16962,7 +16961,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="504" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>44139</v>
       </c>
@@ -16976,7 +16975,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="505" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>44139</v>
       </c>
@@ -16990,7 +16989,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="506" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>44139</v>
       </c>
@@ -17004,7 +17003,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="507" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>44139</v>
       </c>
@@ -17018,7 +17017,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="508" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>44139</v>
       </c>
@@ -17032,7 +17031,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="509" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>44139</v>
       </c>
@@ -17046,7 +17045,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="510" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>44139</v>
       </c>
@@ -17060,7 +17059,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="511" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>44139</v>
       </c>
@@ -17074,7 +17073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="512" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>44139</v>
       </c>
@@ -17088,7 +17087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="513" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>44139</v>
       </c>
@@ -17102,7 +17101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="514" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>44139</v>
       </c>
@@ -17116,7 +17115,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="515" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>44139</v>
       </c>
@@ -17130,7 +17129,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="516" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>44139</v>
       </c>
@@ -17144,7 +17143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="517" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>44139</v>
       </c>
@@ -17158,7 +17157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="518" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>44139</v>
       </c>
@@ -17172,7 +17171,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="519" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>44139</v>
       </c>
@@ -17186,7 +17185,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="520" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>44139</v>
       </c>
@@ -17200,7 +17199,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="521" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>44139</v>
       </c>
@@ -17214,7 +17213,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="522" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>44139</v>
       </c>
@@ -17228,7 +17227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="523" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>44139</v>
       </c>
@@ -17242,7 +17241,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="524" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>44139</v>
       </c>
@@ -17256,7 +17255,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="525" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>44139</v>
       </c>
@@ -17270,7 +17269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="526" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>44139</v>
       </c>
@@ -17284,7 +17283,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="527" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>44139</v>
       </c>
@@ -17298,7 +17297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="528" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>44139</v>
       </c>
@@ -17312,7 +17311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="529" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>44139</v>
       </c>
@@ -17326,7 +17325,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="530" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>44139</v>
       </c>
@@ -17340,7 +17339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="531" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>44139</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="532" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>44139</v>
       </c>
@@ -17368,7 +17367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="533" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>44139</v>
       </c>
@@ -17382,7 +17381,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="534" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>44139</v>
       </c>
@@ -17396,7 +17395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="535" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>44139</v>
       </c>
@@ -17410,7 +17409,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="536" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>44139</v>
       </c>
@@ -17424,7 +17423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="537" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>44139</v>
       </c>
@@ -17438,7 +17437,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="538" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>44139</v>
       </c>
@@ -17452,7 +17451,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="539" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>44139</v>
       </c>
@@ -17466,7 +17465,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="540" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>44139</v>
       </c>
@@ -17480,7 +17479,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="541" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>44139</v>
       </c>
@@ -17494,7 +17493,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="542" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>44139</v>
       </c>
@@ -17508,7 +17507,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="543" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>44139</v>
       </c>
@@ -17522,7 +17521,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="544" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>44139</v>
       </c>
@@ -17536,7 +17535,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="545" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>44139</v>
       </c>
@@ -17550,7 +17549,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="546" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>44139</v>
       </c>
@@ -17564,7 +17563,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="547" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>44139</v>
       </c>
@@ -17578,7 +17577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="548" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>44139</v>
       </c>
@@ -17592,7 +17591,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="549" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>44139</v>
       </c>
@@ -17606,7 +17605,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="550" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>44139</v>
       </c>
@@ -17620,7 +17619,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="551" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>44139</v>
       </c>
@@ -17634,7 +17633,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="552" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>44139</v>
       </c>
@@ -17648,7 +17647,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="553" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>44139</v>
       </c>
@@ -17662,7 +17661,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="554" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>44139</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="555" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>44139</v>
       </c>
@@ -17690,7 +17689,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="556" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>44139</v>
       </c>
@@ -17704,7 +17703,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="557" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>44139</v>
       </c>
@@ -17718,7 +17717,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="558" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>44139</v>
       </c>
@@ -17732,7 +17731,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="559" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>44139</v>
       </c>
@@ -17746,7 +17745,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="560" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>44139</v>
       </c>
@@ -17760,7 +17759,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="561" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>44139</v>
       </c>
@@ -17774,7 +17773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="562" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>44139</v>
       </c>
@@ -17788,7 +17787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="563" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>44139</v>
       </c>
@@ -17802,7 +17801,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="564" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>44139</v>
       </c>
@@ -17816,7 +17815,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="565" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>44139</v>
       </c>
@@ -17830,7 +17829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="566" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>44139</v>
       </c>
@@ -17844,7 +17843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="567" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>44139</v>
       </c>
@@ -17858,7 +17857,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="568" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>44139</v>
       </c>
@@ -17872,7 +17871,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="569" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>44139</v>
       </c>
@@ -17886,7 +17885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="570" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>44139</v>
       </c>
@@ -17900,7 +17899,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="571" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>44139</v>
       </c>
@@ -17914,7 +17913,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="572" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>44139</v>
       </c>
@@ -17928,7 +17927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="573" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>44139</v>
       </c>
@@ -17942,7 +17941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="574" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>44139</v>
       </c>
@@ -17956,7 +17955,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="575" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>44139</v>
       </c>
@@ -17970,7 +17969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="576" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>44139</v>
       </c>
@@ -17984,7 +17983,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="577" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>44139</v>
       </c>
@@ -17998,7 +17997,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="578" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>44139</v>
       </c>
@@ -18012,7 +18011,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="579" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>44139</v>
       </c>
@@ -18026,7 +18025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="580" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>44139</v>
       </c>
@@ -18040,7 +18039,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="581" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>44139</v>
       </c>
@@ -18054,7 +18053,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="582" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>44139</v>
       </c>
@@ -18068,7 +18067,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="583" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>44139</v>
       </c>
@@ -18082,7 +18081,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="584" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>44139</v>
       </c>
@@ -18096,7 +18095,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="585" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>44139</v>
       </c>
@@ -18110,7 +18109,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="586" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>44139</v>
       </c>
@@ -18124,7 +18123,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="587" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>44139</v>
       </c>
@@ -18138,7 +18137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="588" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>44139</v>
       </c>
@@ -18152,7 +18151,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="589" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>44139</v>
       </c>
@@ -18166,7 +18165,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="590" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>44139</v>
       </c>
@@ -18180,7 +18179,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="591" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>44139</v>
       </c>
@@ -18194,7 +18193,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="592" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>44139</v>
       </c>
@@ -18208,7 +18207,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>44139</v>
       </c>
@@ -18222,7 +18221,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>44139</v>
       </c>
@@ -18236,7 +18235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>44139</v>
       </c>
@@ -18250,7 +18249,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>44139</v>
       </c>
@@ -18264,7 +18263,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>44139</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>44139</v>
       </c>
@@ -18292,7 +18291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>44139</v>
       </c>
@@ -18306,7 +18305,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>44139</v>
       </c>
@@ -18320,7 +18319,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>44139</v>
       </c>
@@ -18334,7 +18333,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>44139</v>
       </c>
@@ -18348,7 +18347,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>44139</v>
       </c>
@@ -18362,7 +18361,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>44139</v>
       </c>
@@ -18376,7 +18375,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>44139</v>
       </c>
@@ -18390,7 +18389,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>44139</v>
       </c>
@@ -18404,7 +18403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>44139</v>
       </c>
@@ -18418,7 +18417,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>44139</v>
       </c>
@@ -18432,7 +18431,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="609" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>44139</v>
       </c>
@@ -18446,7 +18445,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="610" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>44139</v>
       </c>
@@ -18460,7 +18459,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="611" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>44139</v>
       </c>
@@ -18474,7 +18473,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="612" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>44139</v>
       </c>
@@ -18488,7 +18487,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="613" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>44139</v>
       </c>
@@ -18502,7 +18501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="614" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>44139</v>
       </c>
@@ -18516,7 +18515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="615" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>44139</v>
       </c>
@@ -18530,7 +18529,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="616" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>44139</v>
       </c>
@@ -18544,7 +18543,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="617" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A617" s="1">
         <v>44139</v>
       </c>
@@ -18558,7 +18557,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="618" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A618" s="1">
         <v>44139</v>
       </c>
@@ -18572,7 +18571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="619" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A619" s="1">
         <v>44139</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="620" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A620" s="1">
         <v>44139</v>
       </c>
@@ -18600,7 +18599,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="621" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A621" s="1">
         <v>44139</v>
       </c>
@@ -18614,7 +18613,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="622" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A622" s="1">
         <v>44139</v>
       </c>
@@ -18628,7 +18627,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="623" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A623" s="1">
         <v>44139</v>
       </c>
@@ -18642,7 +18641,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="624" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A624" s="1">
         <v>44139</v>
       </c>
@@ -18656,7 +18655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="625" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A625" s="1">
         <v>44139</v>
       </c>
@@ -18670,7 +18669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="626" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A626" s="1">
         <v>44139</v>
       </c>
@@ -18684,7 +18683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="627" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A627" s="1">
         <v>44139</v>
       </c>
@@ -18698,7 +18697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="628" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A628" s="1">
         <v>44139</v>
       </c>
@@ -18712,7 +18711,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="629" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A629" s="1">
         <v>44139</v>
       </c>
@@ -18726,7 +18725,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="630" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A630" s="1">
         <v>44139</v>
       </c>
@@ -18740,7 +18739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="631" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A631" s="1">
         <v>44139</v>
       </c>
@@ -18754,7 +18753,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="632" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A632" s="1">
         <v>44139</v>
       </c>
@@ -18768,7 +18767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="633" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A633" s="1">
         <v>44139</v>
       </c>
@@ -18782,7 +18781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="634" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A634" s="1">
         <v>44139</v>
       </c>
@@ -18796,7 +18795,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="635" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A635" s="1">
         <v>44139</v>
       </c>
@@ -18810,7 +18809,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="636" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A636" s="1">
         <v>44139</v>
       </c>
@@ -18824,7 +18823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="637" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A637" s="1">
         <v>44139</v>
       </c>
@@ -18838,7 +18837,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="638" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A638" s="1">
         <v>44139</v>
       </c>
@@ -18852,7 +18851,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="639" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A639" s="1">
         <v>44139</v>
       </c>
@@ -18866,7 +18865,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="640" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A640" s="1">
         <v>44139</v>
       </c>
@@ -18880,7 +18879,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="641" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A641" s="1">
         <v>44139</v>
       </c>
@@ -18894,7 +18893,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="642" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A642" s="1">
         <v>44139</v>
       </c>
@@ -18908,7 +18907,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="643" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A643" s="1">
         <v>44139</v>
       </c>
@@ -18922,7 +18921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="644" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A644" s="1">
         <v>44139</v>
       </c>
@@ -18936,7 +18935,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="645" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A645" s="1">
         <v>44139</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="646" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A646" s="1">
         <v>44139</v>
       </c>
@@ -18964,7 +18963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="647" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A647" s="1">
         <v>44139</v>
       </c>
@@ -18978,7 +18977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="648" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A648" s="1">
         <v>44139</v>
       </c>
@@ -18992,7 +18991,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="649" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A649" s="1">
         <v>44139</v>
       </c>
@@ -19006,7 +19005,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="650" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A650" s="1">
         <v>44139</v>
       </c>
@@ -19020,7 +19019,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="651" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A651" s="1">
         <v>44139</v>
       </c>
@@ -19034,7 +19033,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="652" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A652" s="1">
         <v>44139</v>
       </c>
@@ -19048,7 +19047,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="653" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A653" s="1">
         <v>44139</v>
       </c>
@@ -19062,7 +19061,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="654" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A654" s="1">
         <v>44139</v>
       </c>
@@ -19076,7 +19075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="655" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A655" s="1">
         <v>44139</v>
       </c>
@@ -19090,7 +19089,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="656" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A656" s="1">
         <v>44139</v>
       </c>
@@ -19104,7 +19103,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="657" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A657" s="1">
         <v>44139</v>
       </c>
@@ -19118,7 +19117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="658" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A658" s="1">
         <v>44139</v>
       </c>
@@ -19132,7 +19131,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="659" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A659" s="1">
         <v>44139</v>
       </c>
@@ -19146,7 +19145,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="660" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A660" s="1">
         <v>44139</v>
       </c>
@@ -19160,7 +19159,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="661" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A661" s="1">
         <v>44139</v>
       </c>
@@ -19174,7 +19173,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="662" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A662" s="1">
         <v>44139</v>
       </c>
@@ -19188,7 +19187,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="663" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A663" s="1">
         <v>44139</v>
       </c>
@@ -19202,7 +19201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="664" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A664" s="1">
         <v>44139</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="665" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A665" s="1">
         <v>44139</v>
       </c>
@@ -19230,7 +19229,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="666" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A666" s="1">
         <v>44139</v>
       </c>
@@ -19244,7 +19243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="667" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A667" s="1">
         <v>44139</v>
       </c>
@@ -19258,7 +19257,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="668" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A668" s="1">
         <v>44139</v>
       </c>
@@ -19272,7 +19271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="669" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A669" s="1">
         <v>44139</v>
       </c>
@@ -19286,7 +19285,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="670" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A670" s="1">
         <v>44139</v>
       </c>
@@ -19300,7 +19299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="671" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A671" s="1">
         <v>44139</v>
       </c>
@@ -19314,7 +19313,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="672" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A672" s="1">
         <v>44139</v>
       </c>
@@ -19328,7 +19327,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="673" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A673" s="1">
         <v>44139</v>
       </c>
@@ -19342,7 +19341,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="674" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A674" s="1">
         <v>44139</v>
       </c>
@@ -19356,7 +19355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="675" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A675" s="1">
         <v>44139</v>
       </c>
@@ -19370,7 +19369,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="676" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A676" s="1">
         <v>44139</v>
       </c>
@@ -19384,7 +19383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="677" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A677" s="1">
         <v>44139</v>
       </c>
@@ -19398,7 +19397,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="678" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A678" s="1">
         <v>44139</v>
       </c>
@@ -19412,7 +19411,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="679" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A679" s="1">
         <v>44139</v>
       </c>
@@ -19426,7 +19425,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="680" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A680" s="1">
         <v>44139</v>
       </c>
@@ -19440,7 +19439,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="681" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A681" s="1">
         <v>44139</v>
       </c>
@@ -19454,7 +19453,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="682" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A682" s="1">
         <v>44139</v>
       </c>
@@ -19468,7 +19467,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="683" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A683" s="1">
         <v>44139</v>
       </c>
@@ -19482,7 +19481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="684" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A684" s="1">
         <v>44139</v>
       </c>
@@ -19496,7 +19495,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="685" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A685" s="1">
         <v>44139</v>
       </c>
@@ -19510,7 +19509,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="686" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A686" s="1">
         <v>44139</v>
       </c>
@@ -19524,7 +19523,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="687" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A687" s="1">
         <v>44139</v>
       </c>
@@ -19538,7 +19537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="688" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A688" s="1">
         <v>44139</v>
       </c>
@@ -19552,7 +19551,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="689" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A689" s="1">
         <v>44139</v>
       </c>
@@ -19566,7 +19565,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="690" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A690" s="1">
         <v>44139</v>
       </c>
@@ -19580,7 +19579,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="691" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A691" s="1">
         <v>44139</v>
       </c>
@@ -19594,7 +19593,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="692" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A692" s="1">
         <v>44139</v>
       </c>
@@ -19608,7 +19607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="693" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A693" s="1">
         <v>44139</v>
       </c>
@@ -19622,7 +19621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="694" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A694" s="1">
         <v>44139</v>
       </c>
@@ -19637,19 +19636,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J694" xr:uid="{A5477796-89D2-45A8-B7D4-B66E078F09A0}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="superior"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="2.438914626"/>
-        <filter val="2.446657842"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J694" xr:uid="{A5477796-89D2-45A8-B7D4-B66E078F09A0}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19659,8 +19646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE822377-5912-6248-B8F4-425B9D27B314}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
